--- a/downloaded_files/MTHS102_Lecture-35894.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35894.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Ahmed Waleed Mohamed Nabih</x:t>
   </x:si>
   <x:si>
+    <x:t>1240020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240210</x:t>
   </x:si>
   <x:si>
@@ -141,6 +150,15 @@
     <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1240057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رشا حمدى احمد الدسوقى محمود ابوزيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rasha Hamdy Ahmed El Desouky</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240307</x:t>
   </x:si>
   <x:si>
@@ -274,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mamdouh Yassin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد حبشى توفيق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALI MOHAMED HABASHY TAWFIQ</x:t>
   </x:si>
   <x:si>
     <x:t>1240095</x:t>
@@ -569,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +896,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1120,7 +1147,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.9261352662</x:v>
+        <x:v>45922.4827607292</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1152,7 +1179,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9165525116</x:v>
+        <x:v>45915.9261352662</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1184,7 +1211,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9170110764</x:v>
+        <x:v>45915.9165525116</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1216,7 +1243,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9171456366</x:v>
+        <x:v>45915.9170110764</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1248,7 +1275,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.917508912</x:v>
+        <x:v>45915.9171456366</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1280,7 +1307,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.9183045486</x:v>
+        <x:v>45915.917508912</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1312,7 +1339,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.9178838773</x:v>
+        <x:v>45915.9183045486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1344,7 +1371,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.9266920139</x:v>
+        <x:v>45915.9178838773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1376,7 +1403,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9258232986</x:v>
+        <x:v>45922.4877733449</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1408,7 +1435,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9269721875</x:v>
+        <x:v>45915.9266920139</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1440,7 +1467,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9262607639</x:v>
+        <x:v>45915.9258232986</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1472,7 +1499,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9158101042</x:v>
+        <x:v>45915.9269721875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1504,7 +1531,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.9168749653</x:v>
+        <x:v>45915.9262607639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1536,7 +1563,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.9166617708</x:v>
+        <x:v>45915.9158101042</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1568,7 +1595,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9157197569</x:v>
+        <x:v>45915.9168749653</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1600,7 +1627,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.9173013542</x:v>
+        <x:v>45915.9166617708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1632,7 +1659,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9182258102</x:v>
+        <x:v>45915.9157197569</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1664,7 +1691,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9260820255</x:v>
+        <x:v>45915.9173013542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1696,7 +1723,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9167555903</x:v>
+        <x:v>45915.9182258102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1728,7 +1755,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9164312847</x:v>
+        <x:v>45915.9260820255</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1760,7 +1787,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9251808681</x:v>
+        <x:v>45915.9167555903</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1792,7 +1819,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9178023148</x:v>
+        <x:v>45915.9164312847</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1824,7 +1851,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9254503125</x:v>
+        <x:v>45915.9251808681</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1856,7 +1883,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.9181394676</x:v>
+        <x:v>45915.9178023148</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1888,7 +1915,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.9162330208</x:v>
+        <x:v>45922.4871051273</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1920,7 +1947,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.9249268519</x:v>
+        <x:v>45915.9254503125</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1952,7 +1979,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.9177212963</x:v>
+        <x:v>45915.9181394676</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1984,7 +2011,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9172827199</x:v>
+        <x:v>45915.9162330208</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2016,7 +2043,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.9269454051</x:v>
+        <x:v>45915.9249268519</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2048,7 +2075,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9268672454</x:v>
+        <x:v>45915.9177212963</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2080,7 +2107,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9259917824</x:v>
+        <x:v>45915.9172827199</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2139,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.9175265856</x:v>
+        <x:v>45915.9269454051</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2171,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.9270058681</x:v>
+        <x:v>45915.9268672454</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2203,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.9180487616</x:v>
+        <x:v>45915.9259917824</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2235,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.9247568287</x:v>
+        <x:v>45915.9175265856</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2267,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.915896412</x:v>
+        <x:v>45915.9270058681</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2299,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.9156106134</x:v>
+        <x:v>45915.9180487616</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2331,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.9254690625</x:v>
+        <x:v>45915.9247568287</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2363,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.9179526273</x:v>
+        <x:v>45915.915896412</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2395,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.9257982292</x:v>
+        <x:v>45915.9156106134</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2427,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.9159885417</x:v>
+        <x:v>45915.9254690625</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2432,7 +2459,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.9268054398</x:v>
+        <x:v>45915.9179526273</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2449,6 +2476,102 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45915.9257982292</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45915.9159885417</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45915.9268054398</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Lecture-35894.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35894.xlsx
@@ -87,15 +87,6 @@
     <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امينه امجد رخا احمد حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amina Amgad Rakha Ahmed Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240289</x:t>
   </x:si>
   <x:si>
@@ -120,7 +111,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1240296</x:t>
@@ -346,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Omer Alaaeldin Mohammed Elhosary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد احمد التابعى عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
   </x:si>
   <x:si>
     <x:t>1240245</x:t>
@@ -1179,7 +1179,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9261352662</x:v>
+        <x:v>45915.9165525116</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1211,7 +1211,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9165525116</x:v>
+        <x:v>45915.9170110764</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1243,7 +1243,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9170110764</x:v>
+        <x:v>45915.9171456366</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1275,7 +1275,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.9171456366</x:v>
+        <x:v>45915.917508912</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1307,7 +1307,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.917508912</x:v>
+        <x:v>45915.9183045486</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1339,7 +1339,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.9183045486</x:v>
+        <x:v>45915.9178838773</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1371,7 +1371,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.9178838773</x:v>
+        <x:v>45922.4877733449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1403,7 +1403,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.4877733449</x:v>
+        <x:v>45915.9266920139</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1435,7 +1435,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9266920139</x:v>
+        <x:v>45915.9258232986</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1467,7 +1467,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9258232986</x:v>
+        <x:v>45915.9269721875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1499,7 +1499,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9269721875</x:v>
+        <x:v>45915.9262607639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1531,7 +1531,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.9262607639</x:v>
+        <x:v>45915.9158101042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1563,7 +1563,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.9158101042</x:v>
+        <x:v>45915.9168749653</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1595,7 +1595,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9168749653</x:v>
+        <x:v>45915.9166617708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1627,7 +1627,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.9166617708</x:v>
+        <x:v>45915.9157197569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1659,7 +1659,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9157197569</x:v>
+        <x:v>45915.9173013542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1691,7 +1691,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9173013542</x:v>
+        <x:v>45915.9182258102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1723,7 +1723,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9182258102</x:v>
+        <x:v>45915.9260820255</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1755,7 +1755,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9260820255</x:v>
+        <x:v>45915.9167555903</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1787,7 +1787,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9167555903</x:v>
+        <x:v>45915.9164312847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1819,7 +1819,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9164312847</x:v>
+        <x:v>45915.9251808681</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1851,7 +1851,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9251808681</x:v>
+        <x:v>45915.9178023148</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1883,7 +1883,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.9178023148</x:v>
+        <x:v>45922.4871051273</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1915,7 +1915,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.4871051273</x:v>
+        <x:v>45915.9254503125</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1947,7 +1947,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.9254503125</x:v>
+        <x:v>45915.9181394676</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1979,7 +1979,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.9181394676</x:v>
+        <x:v>45915.9162330208</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2011,7 +2011,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9162330208</x:v>
+        <x:v>45915.9249268519</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2043,7 +2043,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.9249268519</x:v>
+        <x:v>45915.9177212963</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2075,7 +2075,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9177212963</x:v>
+        <x:v>45923.4518910069</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Lecture-35894.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35894.xlsx
@@ -78,15 +78,6 @@
     <x:t>Ahmed Waleed Mohamed Nabih</x:t>
   </x:si>
   <x:si>
-    <x:t>1240020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240289</x:t>
   </x:si>
   <x:si>
@@ -363,7 +354,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1240133</x:t>
@@ -454,6 +445,15 @@
   </x:si>
   <x:si>
     <x:t>Nada magdy Ali Mohamed Ali Wahba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي اسامه محمد لطفي فريد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yahya Osama Mohamed Lotfy</x:t>
   </x:si>
   <x:si>
     <x:t>1240392</x:t>
@@ -1147,7 +1147,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45922.4827607292</x:v>
+        <x:v>45915.9165525116</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1179,7 +1179,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9165525116</x:v>
+        <x:v>45915.9170110764</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1211,7 +1211,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9170110764</x:v>
+        <x:v>45915.9171456366</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1243,7 +1243,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9171456366</x:v>
+        <x:v>45915.917508912</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1275,7 +1275,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.917508912</x:v>
+        <x:v>45915.9183045486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1307,7 +1307,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.9183045486</x:v>
+        <x:v>45915.9178838773</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1339,7 +1339,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.9178838773</x:v>
+        <x:v>45922.4877733449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1371,7 +1371,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45922.4877733449</x:v>
+        <x:v>45915.9266920139</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1403,7 +1403,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9266920139</x:v>
+        <x:v>45915.9258232986</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1435,7 +1435,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9258232986</x:v>
+        <x:v>45915.9269721875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1467,7 +1467,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9269721875</x:v>
+        <x:v>45915.9262607639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1499,7 +1499,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9262607639</x:v>
+        <x:v>45915.9158101042</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1531,7 +1531,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.9158101042</x:v>
+        <x:v>45915.9168749653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1563,7 +1563,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.9168749653</x:v>
+        <x:v>45915.9166617708</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1595,7 +1595,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9166617708</x:v>
+        <x:v>45915.9157197569</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1627,7 +1627,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.9157197569</x:v>
+        <x:v>45915.9173013542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1659,7 +1659,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9173013542</x:v>
+        <x:v>45915.9182258102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1691,7 +1691,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9182258102</x:v>
+        <x:v>45915.9260820255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1723,7 +1723,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9260820255</x:v>
+        <x:v>45915.9167555903</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1755,7 +1755,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9167555903</x:v>
+        <x:v>45915.9164312847</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1787,7 +1787,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9164312847</x:v>
+        <x:v>45915.9251808681</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1819,7 +1819,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9251808681</x:v>
+        <x:v>45915.9178023148</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1851,7 +1851,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9178023148</x:v>
+        <x:v>45922.4871051273</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1883,7 +1883,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.4871051273</x:v>
+        <x:v>45915.9254503125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1915,7 +1915,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.9254503125</x:v>
+        <x:v>45915.9181394676</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1947,7 +1947,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.9181394676</x:v>
+        <x:v>45915.9162330208</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1979,7 +1979,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.9162330208</x:v>
+        <x:v>45915.9249268519</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2011,7 +2011,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9249268519</x:v>
+        <x:v>45915.9177212963</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2043,7 +2043,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.9177212963</x:v>
+        <x:v>45923.4518910069</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2075,7 +2075,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45923.4518910069</x:v>
+        <x:v>45915.9172827199</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2107,7 +2107,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9172827199</x:v>
+        <x:v>45915.9269454051</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2139,7 +2139,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.9269454051</x:v>
+        <x:v>45915.9268672454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2171,7 +2171,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.9268672454</x:v>
+        <x:v>45915.9259917824</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2203,7 +2203,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.9259917824</x:v>
+        <x:v>45915.9175265856</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2235,7 +2235,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.9175265856</x:v>
+        <x:v>45915.9270058681</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2267,7 +2267,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.9270058681</x:v>
+        <x:v>45915.9180487616</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2299,7 +2299,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.9180487616</x:v>
+        <x:v>45915.9247568287</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2331,7 +2331,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.9247568287</x:v>
+        <x:v>45915.915896412</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2363,7 +2363,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.915896412</x:v>
+        <x:v>45915.9156106134</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2395,7 +2395,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.9156106134</x:v>
+        <x:v>45915.9254690625</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2427,7 +2427,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.9254690625</x:v>
+        <x:v>45915.9179526273</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2459,7 +2459,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.9179526273</x:v>
+        <x:v>45925.3611756134</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Lecture-35894.xlsx
+++ b/downloaded_files/MTHS102_Lecture-35894.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -348,15 +348,6 @@
     <x:t>omar mahmoud omar elsayed mohamed humam</x:t>
   </x:si>
   <x:si>
-    <x:t>1240249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240133</x:t>
   </x:si>
   <x:si>
@@ -445,6 +436,12 @@
   </x:si>
   <x:si>
     <x:t>Nada magdy Ali Mohamed Ali Wahba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
   </x:si>
   <x:si>
     <x:t>1240391</x:t>
@@ -2107,7 +2104,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9269454051</x:v>
+        <x:v>45915.9268672454</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2139,7 +2136,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.9268672454</x:v>
+        <x:v>45915.9259917824</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2171,7 +2168,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.9259917824</x:v>
+        <x:v>45915.9175265856</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2203,7 +2200,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.9175265856</x:v>
+        <x:v>45915.9270058681</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2235,7 +2232,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.9270058681</x:v>
+        <x:v>45915.9180487616</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2267,7 +2264,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.9180487616</x:v>
+        <x:v>45915.9247568287</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2299,7 +2296,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.9247568287</x:v>
+        <x:v>45915.915896412</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2331,7 +2328,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.915896412</x:v>
+        <x:v>45915.9156106134</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2363,7 +2360,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.9156106134</x:v>
+        <x:v>45915.9254690625</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2395,7 +2392,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.9254690625</x:v>
+        <x:v>45915.9179526273</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2423,11 +2420,9 @@
       <x:c r="C47" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
+      <x:c r="D47" s="2" t="s"/>
       <x:c r="E47" s="3">
-        <x:v>45915.9179526273</x:v>
+        <x:v>45915.8836662384</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2450,13 +2445,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="s">
+      <x:c r="D48" s="2" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45925.3611756134</x:v>
@@ -2482,13 +2477,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
+      <x:c r="D49" s="2" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45915.9257982292</x:v>
@@ -2514,13 +2509,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="s">
+      <x:c r="D50" s="2" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45915.9159885417</x:v>
@@ -2546,13 +2541,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="C51" s="2" t="s">
+      <x:c r="D51" s="2" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
         <x:v>45915.9268054398</x:v>
